--- a/个人自动化交易平台.xlsx
+++ b/个人自动化交易平台.xlsx
@@ -9,14 +9,17 @@
   <sheets>
     <sheet name="基础功能" sheetId="1" r:id="rId1"/>
     <sheet name="模块功能" sheetId="2" r:id="rId2"/>
-    <sheet name="自动化交易" sheetId="3" r:id="rId3"/>
+    <sheet name="系统处理流程" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">系统处理流程!$A$1:$AW$78</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <r>
       <t>1，固定</t>
@@ -188,6 +191,48 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击开始</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>链接成功</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>链接失败</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程刷新页面</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -243,9 +288,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -335,16 +381,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -353,7 +399,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="1009650"/>
+          <a:off x="247650" y="1295400"/>
           <a:ext cx="666750" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -393,16 +439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -411,8 +457,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="1733550"/>
-          <a:ext cx="2476500" cy="533400"/>
+          <a:off x="1581150" y="981074"/>
+          <a:ext cx="3200400" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -435,18 +481,1401 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统初始化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：绑定各种操作的事件，以及回调方法；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：调用交易</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Util</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的初始化事件</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 定義済み処理 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="2724150"/>
+          <a:ext cx="3276600" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>交易</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Util</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：使用配置的用户信息，链接交易服务器；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 定義済み処理 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="1847850"/>
+          <a:ext cx="3276600" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>交易</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Util</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：取得最新的股数信息；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：取得并显示当天的委托信息；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：取得并显示最新金额信息；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="1943099"/>
+          <a:ext cx="0" cy="781051"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4819650" y="2195513"/>
+          <a:ext cx="1504950" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 67089"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 定義済み処理 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="1943100"/>
+          <a:ext cx="3276600" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：设置页面控件可用；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="1590675"/>
+          <a:ext cx="0" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート: 定義済み処理 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="2838450"/>
+          <a:ext cx="2314575" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：设置页面控件不可用；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="カギ線コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="2214563"/>
+          <a:ext cx="1014413" cy="623887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="フローチャート: 定義済み処理 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="4095751"/>
+          <a:ext cx="3276600" cy="704849"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：读取基础数据；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：启动刷新页面多线程；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="2562225"/>
+          <a:ext cx="0" cy="1533526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="フローチャート: 定義済み処理 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6405282" y="4986619"/>
+          <a:ext cx="3305175" cy="1389528"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Sina</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>取得实时数据；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：实时数据显示到页面；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：开板买入判断，执行；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：启动自动卖的线程；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：启动自动买的线程；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="カギ線コネクタ 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4859991" y="4362451"/>
+          <a:ext cx="1545291" cy="1318932"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="914400" y="1462087"/>
+          <a:ext cx="666750" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="円/楕円 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="3543300"/>
+          <a:ext cx="666750" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>系统启动</a:t>
+            <a:t>结束</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5834063" y="3333749"/>
+          <a:ext cx="4762" cy="209551"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="フローチャート: 定義済み処理 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="3000375"/>
+          <a:ext cx="2352675" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>启动刷新页面定时器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="カギ線コネクタ 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8036719" y="2612230"/>
+          <a:ext cx="314325" cy="461963"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="フローチャート: 定義済み処理 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="3952875"/>
+          <a:ext cx="3276600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>定时器</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：间隔</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>秒定时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>启动刷新页面多线程；</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>23814</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="カギ線コネクタ 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="76" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7984332" y="3512343"/>
+          <a:ext cx="447675" cy="433388"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>191341</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>191341</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8057870" y="4547907"/>
+          <a:ext cx="0" cy="438712"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -812,19 +2241,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="R9:AP29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="18:27" x14ac:dyDescent="0.15">
+      <c r="R9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="18:27" x14ac:dyDescent="0.15">
+      <c r="AA12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="18:27" x14ac:dyDescent="0.15">
+      <c r="AA14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="26:42" x14ac:dyDescent="0.15">
+      <c r="Z25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="26:42" x14ac:dyDescent="0.15">
+      <c r="AP29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>